--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Edn3-Ednra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Edn3-Ednra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,12 +89,6 @@
   </si>
   <si>
     <t>Ednra</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.012975</v>
+        <v>0.1264883333333333</v>
       </c>
       <c r="H2">
-        <v>0.038925</v>
+        <v>0.379465</v>
       </c>
       <c r="I2">
-        <v>0.004878150260562778</v>
+        <v>0.02088586470611676</v>
       </c>
       <c r="J2">
-        <v>0.004878150260562778</v>
+        <v>0.02088586470611676</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.433013333333332</v>
+        <v>3.169998666666667</v>
       </c>
       <c r="N2">
-        <v>19.29904</v>
+        <v>9.509996000000001</v>
       </c>
       <c r="O2">
-        <v>0.1097146002786867</v>
+        <v>0.06457634599094531</v>
       </c>
       <c r="P2">
-        <v>0.1097146002786867</v>
+        <v>0.06457634599094531</v>
       </c>
       <c r="Q2">
-        <v>0.08346834799999998</v>
+        <v>0.4009678480155556</v>
       </c>
       <c r="R2">
-        <v>0.7512151319999999</v>
+        <v>3.60871063214</v>
       </c>
       <c r="S2">
-        <v>0.0005352043059370165</v>
+        <v>0.001348732825582269</v>
       </c>
       <c r="T2">
-        <v>0.0005352043059370165</v>
+        <v>0.001348732825582269</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.012975</v>
+        <v>0.1264883333333333</v>
       </c>
       <c r="H3">
-        <v>0.038925</v>
+        <v>0.379465</v>
       </c>
       <c r="I3">
-        <v>0.004878150260562778</v>
+        <v>0.02088586470611676</v>
       </c>
       <c r="J3">
-        <v>0.004878150260562778</v>
+        <v>0.02088586470611676</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +620,22 @@
         <v>98.12812199999999</v>
       </c>
       <c r="O3">
-        <v>0.5578561255548566</v>
+        <v>0.6663257858061865</v>
       </c>
       <c r="P3">
-        <v>0.5578561255548566</v>
+        <v>0.6663257858061865</v>
       </c>
       <c r="Q3">
-        <v>0.42440412765</v>
+        <v>4.137354201636667</v>
       </c>
       <c r="R3">
-        <v>3.81963714885</v>
+        <v>37.23618781472999</v>
       </c>
       <c r="S3">
-        <v>0.002721306004231966</v>
+        <v>0.01391679021254495</v>
       </c>
       <c r="T3">
-        <v>0.002721306004231966</v>
+        <v>0.01391679021254495</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.012975</v>
+        <v>0.1264883333333333</v>
       </c>
       <c r="H4">
-        <v>0.038925</v>
+        <v>0.379465</v>
       </c>
       <c r="I4">
-        <v>0.004878150260562778</v>
+        <v>0.02088586470611676</v>
       </c>
       <c r="J4">
-        <v>0.004878150260562778</v>
+        <v>0.02088586470611676</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,42 +676,42 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.41905066666667</v>
+        <v>13.20978866666667</v>
       </c>
       <c r="N4">
-        <v>58.257152</v>
+        <v>39.629366</v>
       </c>
       <c r="O4">
-        <v>0.3311905745080944</v>
+        <v>0.2690978682028682</v>
       </c>
       <c r="P4">
-        <v>0.3311905745080943</v>
+        <v>0.2690978682028682</v>
       </c>
       <c r="Q4">
-        <v>0.2519621824</v>
+        <v>1.670884152132222</v>
       </c>
       <c r="R4">
-        <v>2.2676596416</v>
+        <v>15.03795736919</v>
       </c>
       <c r="S4">
-        <v>0.001615597387332597</v>
+        <v>0.005620341667989544</v>
       </c>
       <c r="T4">
-        <v>0.001615597387332596</v>
+        <v>0.005620341667989544</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -729,40 +726,40 @@
         <v>0.038925</v>
       </c>
       <c r="I5">
-        <v>0.004878150260562778</v>
+        <v>0.002142443397113291</v>
       </c>
       <c r="J5">
-        <v>0.004878150260562778</v>
+        <v>0.002142443397113291</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.07263</v>
+        <v>3.169998666666667</v>
       </c>
       <c r="N5">
-        <v>0.21789</v>
+        <v>9.509996000000001</v>
       </c>
       <c r="O5">
-        <v>0.001238699658362439</v>
+        <v>0.06457634599094531</v>
       </c>
       <c r="P5">
-        <v>0.001238699658362439</v>
+        <v>0.06457634599094531</v>
       </c>
       <c r="Q5">
-        <v>0.00094237425</v>
+        <v>0.04113073270000001</v>
       </c>
       <c r="R5">
-        <v>0.008481368250000001</v>
+        <v>0.3701765943000001</v>
       </c>
       <c r="S5">
-        <v>6.042563061199755E-06</v>
+        <v>0.0001383511660780041</v>
       </c>
       <c r="T5">
-        <v>6.042563061199755E-06</v>
+        <v>0.0001383511660780041</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,31 +767,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>2.646844666666667</v>
+        <v>0.012975</v>
       </c>
       <c r="H6">
-        <v>7.940534</v>
+        <v>0.038925</v>
       </c>
       <c r="I6">
-        <v>0.9951218497394373</v>
+        <v>0.002142443397113291</v>
       </c>
       <c r="J6">
-        <v>0.9951218497394373</v>
+        <v>0.002142443397113291</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.433013333333332</v>
+        <v>32.709374</v>
       </c>
       <c r="N6">
-        <v>19.29904</v>
+        <v>98.12812199999999</v>
       </c>
       <c r="O6">
-        <v>0.1097146002786867</v>
+        <v>0.6663257858061865</v>
       </c>
       <c r="P6">
-        <v>0.1097146002786867</v>
+        <v>0.6663257858061865</v>
       </c>
       <c r="Q6">
-        <v>17.02718703192889</v>
+        <v>0.42440412765</v>
       </c>
       <c r="R6">
-        <v>153.24468328736</v>
+        <v>3.81963714885</v>
       </c>
       <c r="S6">
-        <v>0.1091793959727497</v>
+        <v>0.001427565280126789</v>
       </c>
       <c r="T6">
-        <v>0.1091793959727497</v>
+        <v>0.001427565280126789</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +829,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>2.646844666666667</v>
+        <v>0.012975</v>
       </c>
       <c r="H7">
-        <v>7.940534</v>
+        <v>0.038925</v>
       </c>
       <c r="I7">
-        <v>0.9951218497394373</v>
+        <v>0.002142443397113291</v>
       </c>
       <c r="J7">
-        <v>0.9951218497394373</v>
+        <v>0.002142443397113291</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,42 +862,42 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>32.709374</v>
+        <v>13.20978866666667</v>
       </c>
       <c r="N7">
-        <v>98.12812199999999</v>
+        <v>39.629366</v>
       </c>
       <c r="O7">
-        <v>0.5578561255548566</v>
+        <v>0.2690978682028682</v>
       </c>
       <c r="P7">
-        <v>0.5578561255548566</v>
+        <v>0.2690978682028682</v>
       </c>
       <c r="Q7">
-        <v>86.57663212190532</v>
+        <v>0.17139700795</v>
       </c>
       <c r="R7">
-        <v>779.1896890971478</v>
+        <v>1.54257307155</v>
       </c>
       <c r="S7">
-        <v>0.5551348195506247</v>
+        <v>0.0005765269509084974</v>
       </c>
       <c r="T7">
-        <v>0.5551348195506247</v>
+        <v>0.0005765269509084975</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.646844666666667</v>
+        <v>5.916706</v>
       </c>
       <c r="H8">
-        <v>7.940534</v>
+        <v>17.750118</v>
       </c>
       <c r="I8">
-        <v>0.9951218497394373</v>
+        <v>0.9769716918967699</v>
       </c>
       <c r="J8">
-        <v>0.9951218497394373</v>
+        <v>0.97697169189677</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,90 +924,152 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.41905066666667</v>
+        <v>3.169998666666667</v>
       </c>
       <c r="N8">
-        <v>58.257152</v>
+        <v>9.509996000000001</v>
       </c>
       <c r="O8">
-        <v>0.3311905745080944</v>
+        <v>0.06457634599094531</v>
       </c>
       <c r="P8">
-        <v>0.3311905745080943</v>
+        <v>0.06457634599094531</v>
       </c>
       <c r="Q8">
-        <v>51.39921068879644</v>
+        <v>18.75595013105867</v>
       </c>
       <c r="R8">
-        <v>462.592896199168</v>
+        <v>168.803551179528</v>
       </c>
       <c r="S8">
-        <v>0.3295749771207618</v>
+        <v>0.06308926199928502</v>
       </c>
       <c r="T8">
-        <v>0.3295749771207617</v>
+        <v>0.06308926199928504</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>5.916706</v>
+      </c>
+      <c r="H9">
+        <v>17.750118</v>
+      </c>
+      <c r="I9">
+        <v>0.9769716918967699</v>
+      </c>
+      <c r="J9">
+        <v>0.97697169189677</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>32.709374</v>
+      </c>
+      <c r="N9">
+        <v>98.12812199999999</v>
+      </c>
+      <c r="O9">
+        <v>0.6663257858061865</v>
+      </c>
+      <c r="P9">
+        <v>0.6663257858061865</v>
+      </c>
+      <c r="Q9">
+        <v>193.531749402044</v>
+      </c>
+      <c r="R9">
+        <v>1741.785744618396</v>
+      </c>
+      <c r="S9">
+        <v>0.6509814303135147</v>
+      </c>
+      <c r="T9">
+        <v>0.6509814303135149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>2.646844666666667</v>
-      </c>
-      <c r="H9">
-        <v>7.940534</v>
-      </c>
-      <c r="I9">
-        <v>0.9951218497394373</v>
-      </c>
-      <c r="J9">
-        <v>0.9951218497394373</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.07263</v>
-      </c>
-      <c r="N9">
-        <v>0.21789</v>
-      </c>
-      <c r="O9">
-        <v>0.001238699658362439</v>
-      </c>
-      <c r="P9">
-        <v>0.001238699658362439</v>
-      </c>
-      <c r="Q9">
-        <v>0.19224032814</v>
-      </c>
-      <c r="R9">
-        <v>1.73016295326</v>
-      </c>
-      <c r="S9">
-        <v>0.001232657095301239</v>
-      </c>
-      <c r="T9">
-        <v>0.001232657095301239</v>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>5.916706</v>
+      </c>
+      <c r="H10">
+        <v>17.750118</v>
+      </c>
+      <c r="I10">
+        <v>0.9769716918967699</v>
+      </c>
+      <c r="J10">
+        <v>0.97697169189677</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>13.20978866666667</v>
+      </c>
+      <c r="N10">
+        <v>39.629366</v>
+      </c>
+      <c r="O10">
+        <v>0.2690978682028682</v>
+      </c>
+      <c r="P10">
+        <v>0.2690978682028682</v>
+      </c>
+      <c r="Q10">
+        <v>78.15843586279867</v>
+      </c>
+      <c r="R10">
+        <v>703.4259227651879</v>
+      </c>
+      <c r="S10">
+        <v>0.2629009995839701</v>
+      </c>
+      <c r="T10">
+        <v>0.2629009995839702</v>
       </c>
     </row>
   </sheetData>
